--- a/Faza 1/2b Format partner budget - Horizon2020 - UMCU.xlsx
+++ b/Faza 1/2b Format partner budget - Horizon2020 - UMCU.xlsx
@@ -1395,10 +1395,13 @@
         <f t="shared" ref="Q14:Q22" si="3">+J14+K14+L14+M14+O14+P14</f>
         <v>15025</v>
       </c>
-      <c r="R14" s="36"/>
+      <c r="R14" s="37">
+        <f t="shared" ref="R14:R26" si="4">Q14</f>
+        <v>15025</v>
+      </c>
       <c r="S14" s="37">
-        <f t="shared" ref="S14:S22" si="4">+Q14-R14</f>
-        <v>15025</v>
+        <f t="shared" ref="S14:S22" si="5">+Q14-R14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -1430,9 +1433,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="36"/>
+      <c r="R15" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S15" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1465,9 +1471,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R16" s="36"/>
+      <c r="R16" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S16" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1500,9 +1509,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R17" s="36"/>
+      <c r="R17" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S17" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1535,9 +1547,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R18" s="36"/>
+      <c r="R18" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S18" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1580,10 +1595,13 @@
         <f t="shared" si="3"/>
         <v>109425</v>
       </c>
-      <c r="R19" s="36"/>
-      <c r="S19" s="37">
+      <c r="R19" s="37">
         <f t="shared" si="4"/>
         <v>109425</v>
+      </c>
+      <c r="S19" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -1627,10 +1645,13 @@
         <f t="shared" si="3"/>
         <v>150225</v>
       </c>
-      <c r="R20" s="36"/>
-      <c r="S20" s="37">
+      <c r="R20" s="37">
         <f t="shared" si="4"/>
         <v>150225</v>
+      </c>
+      <c r="S20" s="37">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -1662,9 +1683,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R21" s="36"/>
+      <c r="R21" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S21" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1697,9 +1721,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R22" s="36"/>
+      <c r="R22" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S22" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1726,7 +1753,10 @@
       <c r="O23" s="36"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="S23" s="36"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -1752,7 +1782,10 @@
       <c r="O24" s="36"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="S24" s="36"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -1778,7 +1811,10 @@
       <c r="O25" s="36"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
+      <c r="R25" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="S25" s="36"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -1810,7 +1846,10 @@
         <f>+J26+K26+L26+M26+O26+P26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="36"/>
+      <c r="R26" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S26" s="37">
         <f>+Q26-R26</f>
         <v>0</v>
@@ -1823,68 +1862,68 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="38">
-        <f t="shared" ref="D27:S27" si="5">SUM(D14:D26)</f>
+        <f t="shared" ref="D27:S27" si="6">SUM(D14:D26)</f>
         <v>12</v>
       </c>
       <c r="E27" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F27" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G27" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H27" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I27" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J27" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>108000</v>
       </c>
       <c r="K27" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>106940</v>
       </c>
       <c r="L27" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6000</v>
       </c>
       <c r="M27" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N27" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O27" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53735</v>
       </c>
       <c r="P27" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q27" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>274675</v>
       </c>
       <c r="R27" s="44">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>274675</v>
       </c>
       <c r="S27" s="45">
-        <f t="shared" si="5"/>
-        <v>274675</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="T27" s="46"/>
     </row>
